--- a/Woofers3D/android/assets/woofers.xlsx
+++ b/Woofers3D/android/assets/woofers.xlsx
@@ -12,11 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>woofers</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -43,7 +39,242 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,9 +290,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -75,8 +353,149 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
+      <c r="A1" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B1" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C1" t="n" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D1" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="E1" t="n" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="F1" t="n" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G1" t="n" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="H1" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="I1" t="n" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="J1" t="n" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="K1" t="n" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="L1" t="n" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="M1" t="n" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="N1" t="n" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="O1" t="n" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="P1" t="n" s="16">
+        <v>23.0</v>
+      </c>
+      <c r="Q1" t="n" s="17">
+        <v>24.0</v>
+      </c>
+      <c r="R1" t="n" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="S1" t="n" s="19">
+        <v>26.0</v>
+      </c>
+      <c r="T1" t="n" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="U1" t="n" s="21">
+        <v>29.0</v>
+      </c>
+      <c r="V1" t="n" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="W1" t="n" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="X1" t="n" s="24">
+        <v>40.0</v>
+      </c>
+      <c r="Y1" t="n" s="25">
+        <v>41.0</v>
+      </c>
+      <c r="Z1" t="n" s="26">
+        <v>42.0</v>
+      </c>
+      <c r="AA1" t="n" s="27">
+        <v>43.0</v>
+      </c>
+      <c r="AB1" t="n" s="28">
+        <v>44.0</v>
+      </c>
+      <c r="AC1" t="n" s="29">
+        <v>45.0</v>
+      </c>
+      <c r="AD1" t="n" s="30">
+        <v>46.0</v>
+      </c>
+      <c r="AE1" t="n" s="31">
+        <v>47.0</v>
+      </c>
+      <c r="AF1" t="n" s="32">
+        <v>48.0</v>
+      </c>
+      <c r="AG1" t="n" s="33">
+        <v>49.0</v>
+      </c>
+      <c r="AH1" t="n" s="34">
+        <v>50.0</v>
+      </c>
+      <c r="AI1" t="n" s="35">
+        <v>51.0</v>
+      </c>
+      <c r="AJ1" t="n" s="36">
+        <v>52.0</v>
+      </c>
+      <c r="AK1" t="n" s="37">
+        <v>53.0</v>
+      </c>
+      <c r="AL1" t="n" s="38">
+        <v>54.0</v>
+      </c>
+      <c r="AM1" t="n" s="39">
+        <v>55.0</v>
+      </c>
+      <c r="AN1" t="n" s="40">
+        <v>56.0</v>
+      </c>
+      <c r="AO1" t="n" s="41">
+        <v>57.0</v>
+      </c>
+      <c r="AP1" t="n" s="42">
+        <v>58.0</v>
+      </c>
+      <c r="AQ1" t="n" s="43">
+        <v>59.0</v>
+      </c>
+      <c r="AR1" t="n" s="44">
+        <v>60.0</v>
+      </c>
+      <c r="AS1" t="n" s="45">
+        <v>61.0</v>
+      </c>
+      <c r="AT1" t="n" s="46">
+        <v>62.0</v>
+      </c>
+      <c r="AU1" t="n" s="47">
+        <v>63.0</v>
+      </c>
+      <c r="AV1" t="n" s="48">
+        <v>64.0</v>
       </c>
     </row>
   </sheetData>
